--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/累计折旧.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/累计折旧.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>387.92878</v>
-      </c>
-      <c r="C2" t="n">
-        <v>969.4336499999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>81.01956</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.21795</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.27286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1508.45718</v>
-      </c>
-      <c r="H2" t="n">
-        <v>347.56417</v>
-      </c>
-      <c r="I2" t="n">
-        <v>201.97585</v>
-      </c>
-      <c r="J2" t="n">
-        <v>118.46585</v>
-      </c>
-      <c r="K2" t="n">
-        <v>19656.20081</v>
-      </c>
-      <c r="L2" t="n">
-        <v>74.82684</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.93048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.769080000000001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>521.13463</v>
-      </c>
-      <c r="P2" t="n">
-        <v>476.48769</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>104.12814</v>
-      </c>
-      <c r="R2" t="n">
-        <v>29.58904</v>
-      </c>
-      <c r="S2" t="n">
-        <v>40.44263</v>
-      </c>
-      <c r="T2" t="n">
-        <v>66.23808</v>
-      </c>
-      <c r="U2" t="n">
-        <v>93.51497000000001</v>
-      </c>
-      <c r="V2" t="n">
-        <v>291.0593</v>
-      </c>
-      <c r="W2" t="n">
-        <v>112.69996</v>
-      </c>
-      <c r="X2" t="n">
-        <v>921.55557</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4230.94993</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>425.18804</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>266.74922</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>17.08239</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1146.5805</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2404.90879</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>552.48915</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>321.15183</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>150.37778</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>103.50481</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>593.77384</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>86.89017</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>100.45939</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>258.19647</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>214.44629</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2221.9654</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>47.85614</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>387.5664</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1128.17296</v>
-      </c>
-      <c r="D3" t="n">
-        <v>85.90676000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.17406</v>
-      </c>
-      <c r="F3" t="n">
-        <v>12.23027</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1622.86772</v>
-      </c>
-      <c r="H3" t="n">
-        <v>255.58193</v>
-      </c>
-      <c r="I3" t="n">
-        <v>214.31753</v>
-      </c>
-      <c r="J3" t="n">
-        <v>132.22971</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22193.95782</v>
-      </c>
-      <c r="L3" t="n">
-        <v>85.58794</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7.57949</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.894690000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>521.85793</v>
-      </c>
-      <c r="P3" t="n">
-        <v>522.47734</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>108.36672</v>
-      </c>
-      <c r="R3" t="n">
-        <v>29.54083</v>
-      </c>
-      <c r="S3" t="n">
-        <v>43.19549</v>
-      </c>
-      <c r="T3" t="n">
-        <v>63.80595</v>
-      </c>
-      <c r="U3" t="n">
-        <v>101.09157</v>
-      </c>
-      <c r="V3" t="n">
-        <v>355.09385</v>
-      </c>
-      <c r="W3" t="n">
-        <v>116.48211</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1062.09118</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>5156.82331</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>467.94798</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>298.20336</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>16.95783</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1364.74329</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2876.27642</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>542.11322</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>371.66152</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>161.14263</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>111.52987</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>580.67711</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>95.95611</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>103.21146</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>247.13781</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>225.19149</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2523.58089</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>50.5695</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>383.61924</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1186.17063</v>
-      </c>
-      <c r="D4" t="n">
-        <v>82.43649000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.18345</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.36429</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1765.88366</v>
-      </c>
-      <c r="H4" t="n">
-        <v>269.17377</v>
-      </c>
-      <c r="I4" t="n">
-        <v>230.65046</v>
-      </c>
-      <c r="J4" t="n">
-        <v>132.48198</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23759.26068</v>
-      </c>
-      <c r="L4" t="n">
-        <v>76.46567</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.7921</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.70174</v>
-      </c>
-      <c r="O4" t="n">
-        <v>556.70608</v>
-      </c>
-      <c r="P4" t="n">
-        <v>565.24439</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>107.25149</v>
-      </c>
-      <c r="R4" t="n">
-        <v>25.34548</v>
-      </c>
-      <c r="S4" t="n">
-        <v>50.04539</v>
-      </c>
-      <c r="T4" t="n">
-        <v>65.17039</v>
-      </c>
-      <c r="U4" t="n">
-        <v>96.12392</v>
-      </c>
-      <c r="V4" t="n">
-        <v>400.69944</v>
-      </c>
-      <c r="W4" t="n">
-        <v>134.87909</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1203.69523</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5586.19544</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>504.02024</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>293.12592</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>14.28262</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1473.9786</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3174.31657</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>520.70653</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>428.23543</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>177.62229</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>117.13048</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>603.27442</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>98.43383</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>112.51327</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>222.52103</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>244.95011</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2625.82803</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>60.45437</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
